--- a/biology/Botanique/Gossypium_australe/Gossypium_australe.xlsx
+++ b/biology/Botanique/Gossypium_australe/Gossypium_australe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gossypium australe est une espèce de buisson endémique trouvé dans le nord de l'Australie occidentale. Il fait partie de la famille des Malvaceae et du genre Gossypium (comme les cotonniers « véritables »).
 Il aime les sols sablonneux près des cours d'eau et atteint 70 centimètres à 1 mètre de haut.
-Les feuilles sont vertes et velues, ovales à elliptiques, douces au toucher et mesurent 10 cm de long. Les fleurs mesurent 3 à 6 centimètres de diamètre et sont de couleur rose pâle avec une partie centrale plus foncée. Les fruits sont velus, sphériques et contiennent une graine piquante[1].
-Il est quelquefois confondu avec Gossypium sturtianum[1].
+Les feuilles sont vertes et velues, ovales à elliptiques, douces au toucher et mesurent 10 cm de long. Les fleurs mesurent 3 à 6 centimètres de diamètre et sont de couleur rose pâle avec une partie centrale plus foncée. Les fruits sont velus, sphériques et contiennent une graine piquante.
+Il est quelquefois confondu avec Gossypium sturtianum.
 </t>
         </is>
       </c>
